--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Sylhet.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Sylhet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="-21140" windowWidth="19640" windowHeight="20560" tabRatio="500" firstSheet="20" activeTab="23"/>
+    <workbookView xWindow="12100" yWindow="-21140" windowWidth="19640" windowHeight="20560" tabRatio="500" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -558,9 +558,6 @@
     <t>Intervention</t>
   </si>
   <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
     <t>Complements group</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     <t>Complementary feeding (food insecure with neither promotion nor supplementation)</t>
   </si>
   <si>
-    <t>Breastfeeding promotion (dual delivery)</t>
-  </si>
-  <si>
     <t>baseline coverage</t>
   </si>
   <si>
@@ -591,15 +585,6 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Complementary feeding (education)</t>
-  </si>
-  <si>
-    <t>Complementary feeding (supplementation)</t>
-  </si>
-  <si>
-    <t>Balanced energy supplementation</t>
-  </si>
-  <si>
     <t>Multiple micronutrient supplementation</t>
   </si>
   <si>
@@ -625,6 +610,21 @@
   </si>
   <si>
     <t>fraction food insecure (not poor)</t>
+  </si>
+  <si>
+    <t>Prophylactic zinc supplementation</t>
+  </si>
+  <si>
+    <t>Breastfeeding promotion</t>
+  </si>
+  <si>
+    <t>Complementary feeding education</t>
+  </si>
+  <si>
+    <t>Public provision of complementary foods</t>
+  </si>
+  <si>
+    <t>Balanced energy-protein supplementation</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3">
         <v>0.56799999999999995</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" s="25">
         <v>0.51200000000000001</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="26">
         <v>0.20599999999999999</v>
@@ -2722,7 +2722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2751,7 +2753,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2811,7 +2813,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2831,7 +2833,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2851,7 +2853,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2871,7 +2873,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -2891,7 +2893,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2918,7 +2920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2948,7 +2952,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -3196,7 +3200,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3212,18 +3216,18 @@
         <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="19">
         <v>0</v>
@@ -3240,7 +3244,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="18">
         <v>0.6</v>
@@ -3257,7 +3261,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" s="18">
         <v>0.14000000000000001</v>
@@ -3274,7 +3278,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -3291,7 +3295,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B6" s="18">
         <v>0.61</v>
@@ -3308,7 +3312,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -3325,7 +3329,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -3447,7 +3451,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3480,14 +3484,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3510,7 +3514,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3533,7 +3537,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -3556,7 +3560,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -3581,7 +3585,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3604,7 +3608,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3628,7 +3632,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3758,12 +3762,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3771,7 +3775,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3788,10 +3792,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3808,7 +3812,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
@@ -3827,10 +3831,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3847,7 +3851,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3872,17 +3876,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3905,7 +3909,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3949,7 +3953,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4020,18 +4024,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4054,7 +4058,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4098,7 +4102,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4169,16 +4173,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4201,7 +4207,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4245,7 +4251,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>

--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Sylhet.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Sylhet.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="-21140" windowWidth="19640" windowHeight="20560" tabRatio="500" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="12100" yWindow="-21140" windowWidth="19640" windowHeight="20560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
     <sheet name="projected births" sheetId="2" r:id="rId2"/>
-    <sheet name="total mortality" sheetId="3" r:id="rId3"/>
-    <sheet name="mortality" sheetId="4" r:id="rId4"/>
+    <sheet name="mortality rates" sheetId="3" r:id="rId3"/>
+    <sheet name="causes of death" sheetId="4" r:id="rId4"/>
     <sheet name="distributions" sheetId="5" r:id="rId5"/>
     <sheet name="birth outcome distribution" sheetId="6" r:id="rId6"/>
     <sheet name="Incidence of conditions" sheetId="12" r:id="rId7"/>
-    <sheet name="RRStunting" sheetId="7" r:id="rId8"/>
-    <sheet name="RRWasting" sheetId="8" r:id="rId9"/>
-    <sheet name="RRBreastfeeding" sheetId="9" r:id="rId10"/>
-    <sheet name="RR Death by Birth Outcome" sheetId="10" r:id="rId11"/>
+    <sheet name="RR death by stunting" sheetId="7" r:id="rId8"/>
+    <sheet name="RR death by wasting" sheetId="8" r:id="rId9"/>
+    <sheet name="RR death by breastfeeding" sheetId="9" r:id="rId10"/>
+    <sheet name="RR death by birth outcome" sheetId="10" r:id="rId11"/>
     <sheet name="OR stunting progression" sheetId="11" r:id="rId12"/>
     <sheet name="RR diarrhoea" sheetId="13" r:id="rId13"/>
     <sheet name="OR stunting by condition" sheetId="14" r:id="rId14"/>
     <sheet name="OR stunting by birth outcome" sheetId="15" r:id="rId15"/>
     <sheet name="OR stunting by intervention" sheetId="16" r:id="rId16"/>
-    <sheet name="OR stunting for complements" sheetId="17" r:id="rId17"/>
-    <sheet name="OR appropriateBF by interv" sheetId="18" r:id="rId18"/>
+    <sheet name="OR stunting by compfeeding" sheetId="17" r:id="rId17"/>
+    <sheet name="OR correctBF by interventn" sheetId="18" r:id="rId18"/>
     <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId19"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
     <sheet name="Interventions target population" sheetId="21" r:id="rId21"/>
@@ -558,9 +558,6 @@
     <t>Intervention</t>
   </si>
   <si>
-    <t>Complements group</t>
-  </si>
-  <si>
     <t>Complementary feeding (food secure with promotion)</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Balanced energy-protein supplementation</t>
+  </si>
+  <si>
+    <t>Food security &amp; education</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
         <v>0.56799999999999995</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="25">
         <v>0.51200000000000001</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="26">
         <v>0.20599999999999999</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2813,7 +2813,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -3216,18 +3216,18 @@
         <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="19">
         <v>0</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="18">
         <v>0.6</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="18">
         <v>0.14000000000000001</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="18">
         <v>0.61</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -3484,14 +3484,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3886,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4035,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4173,7 +4173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
@@ -4184,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4322,7 +4322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Sylhet.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Sylhet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="-21140" windowWidth="19640" windowHeight="20560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12400" yWindow="-21140" windowWidth="19340" windowHeight="21140" tabRatio="500" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -3199,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3247,7 +3247,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="18">
-        <v>0.6</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
@@ -3264,13 +3264,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="18">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
       </c>
       <c r="D4" s="18">
-        <v>3.91</v>
+        <v>3.56</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="13"/>
@@ -3287,7 +3287,7 @@
         <v>0.85</v>
       </c>
       <c r="D5" s="18">
-        <v>230.4</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="13"/>
@@ -3304,7 +3304,7 @@
         <v>0.85</v>
       </c>
       <c r="D6" s="18">
-        <v>3.91</v>
+        <v>3.56</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
@@ -4322,7 +4322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
